--- a/biology/Botanique/A._H._Tammsaare_tee/A._H._Tammsaare_tee.xlsx
+++ b/biology/Botanique/A._H._Tammsaare_tee/A._H._Tammsaare_tee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La rue A. H. Tammsaare (en estonien : A. H. Tammsaare tee) est une rue Tallinn en Estonie[1].
+La rue A. H. Tammsaare (en estonien : A. H. Tammsaare tee) est une rue Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longue de 3,75 kilomètres, la rue A. H. Tammsaare traverse les quartiers de Kesklinn, Kristiine et Mustamäe. La rue est orientée du sud-est au nord-ouest.
 La rue commence à l'intersection de Pärnu maantee et de Järvevana tee dans le quartier de Kesklinn. 
@@ -549,12 +563,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parcs
-Le parc Tondimõisa (et) (4,6 ha) est situé dans la zone située entre les rues Tondi tänav, A. H. Tammsaare tee et Nõmme tee.
+          <t>Parcs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Tondimõisa (et) (4,6 ha) est situé dans la zone située entre les rues Tondi tänav, A. H. Tammsaare tee et Nõmme tee.
 Le parc Parditiigi (et) (5,9 ha) est situé dans la zone située entre  Nõmme tee, A. H. Tammsaare tee et Sõpruse puiestee.
 Le parc Lepistiku (et) est situé au sud-est du boulevard Sõpruses et au sud-ouest de la rue A. H. Tammsaare.
-Bâtiments
-Tammsaare tee 47 - Centre d'affaires Tammsaare ärikeskus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A._H._Tammsaare_tee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._H._Tammsaare_tee</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lieux et monuments de la rue</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bâtiments</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tammsaare tee 47 - Centre d'affaires Tammsaare ärikeskus.
 Tammsaare tee 49 - Quincaillerie K-Rauta.
 Tammsaare tee 62 - Supermarché SelverSelver.
 Tammsaare tee 76 / Sõpruse pst 200b - Restaurant McDonald's.
@@ -569,33 +623,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>A._H._Tammsaare_tee</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/A._H._Tammsaare_tee</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes de bus n° 10, 12, 13, 20, 20А, 26, 26А, 27, 28, 33, 37, 45, 61 et 64 empruntent la rue[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes de bus n° 10, 12, 13, 20, 20А, 26, 26А, 27, 28, 33, 37, 45, 61 et 64 empruntent la rue.
 </t>
         </is>
       </c>
